--- a/data/outputs/OR/25.xlsx
+++ b/data/outputs/OR/25.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ82"/>
+  <dimension ref="A1:BR82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1370,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1592,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1805,6 +1814,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2026,6 +2036,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2239,6 +2250,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2448,6 +2460,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2674,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2866,6 +2880,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3071,6 +3086,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3280,6 +3296,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3493,6 +3510,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3710,6 +3728,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3915,6 +3934,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4128,6 +4148,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4325,6 +4346,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4538,6 +4560,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4743,6 +4766,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4964,6 +4988,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5177,6 +5202,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5386,6 +5412,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5599,6 +5626,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5812,6 +5840,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6025,6 +6054,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6238,6 +6268,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6451,6 +6482,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6664,6 +6696,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6881,6 +6914,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7098,6 +7132,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7311,6 +7346,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7528,6 +7564,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7741,6 +7778,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7827,7 +7865,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Fazlollahtabar, Hamed/0000-0003-3053-4399; </t>
+          <t>Fazlollahtabar, Hamed/0000-0003-3053-4399;</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -7954,6 +7992,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8167,6 +8206,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8376,6 +8416,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8577,6 +8618,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8786,6 +8828,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9007,6 +9050,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9216,6 +9260,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9429,6 +9474,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9634,6 +9680,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9847,6 +9894,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10064,6 +10112,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10269,6 +10318,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10482,6 +10532,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10695,6 +10746,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10908,6 +10960,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11121,6 +11174,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11322,6 +11376,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11531,6 +11586,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11740,6 +11796,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11949,6 +12006,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12158,6 +12216,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12367,6 +12426,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12576,6 +12636,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12789,6 +12850,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13002,6 +13064,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13215,6 +13278,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13428,6 +13492,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13645,6 +13710,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13858,6 +13924,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14063,6 +14130,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14272,6 +14340,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14485,6 +14554,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14690,6 +14760,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14899,6 +14970,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15104,6 +15176,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15309,6 +15382,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15514,6 +15588,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15719,6 +15794,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15932,6 +16008,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16145,6 +16222,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16362,6 +16440,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16579,6 +16658,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16800,6 +16880,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16886,7 +16967,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Wang, Song/0000-0002-5198-8173; </t>
+          <t>Wang, Song/0000-0002-5198-8173;</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -17021,6 +17102,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17234,6 +17316,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17447,6 +17530,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17652,6 +17736,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17865,6 +17950,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
